--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D8EC88-0FE4-884A-B79E-4D15FDCBF89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152532D3-09F4-604A-9E63-B5A7B1B24884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Yield</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Litres</t>
   </si>
   <si>
-    <t>lundi, novembre 21, 2022</t>
-  </si>
-  <si>
     <t>1 brassin non fermente</t>
   </si>
   <si>
-    <t>lundi, décembre 12, 2022</t>
-  </si>
-  <si>
     <t>URSA MINOR</t>
   </si>
   <si>
@@ -117,6 +111,15 @@
   </si>
   <si>
     <t>CHRISTMAS ALE</t>
+  </si>
+  <si>
+    <t>samedi, novembre 19, 2022</t>
+  </si>
+  <si>
+    <t>lundi, novembre 21, 2021</t>
+  </si>
+  <si>
+    <t>lundi, décembre 12, 2021</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,10 +489,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -497,10 +500,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -508,10 +511,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -519,10 +522,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -530,10 +533,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -541,10 +544,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -552,10 +555,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -563,10 +566,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -574,10 +577,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -585,10 +588,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -596,10 +599,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -607,10 +610,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -618,10 +621,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -629,13 +632,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152532D3-09F4-604A-9E63-B5A7B1B24884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D930D-A3C1-2C43-80F5-200024A6F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Yield</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>lundi, décembre 12, 2021</t>
+  </si>
+  <si>
+    <t>mardi, décembre 27, 2022</t>
+  </si>
+  <si>
+    <t>YEKU</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,6 +658,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D930D-A3C1-2C43-80F5-200024A6F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808243E8-D688-E04C-80B7-CBE1D6134D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Yield</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>YEKU</t>
+  </si>
+  <si>
+    <t>dimanche, janvier 22, 2023</t>
   </si>
 </sst>
 </file>
@@ -161,8 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,6 +675,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>307</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808243E8-D688-E04C-80B7-CBE1D6134D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485A821-515B-CC4D-8B89-B515F8C20496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Yield</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>dimanche, janvier 22, 2023</t>
+  </si>
+  <si>
+    <t>dimanche, mars 26, 2023</t>
+  </si>
+  <si>
+    <t>Brad Peat</t>
+  </si>
+  <si>
+    <t>samedi, avril 01, 2023</t>
+  </si>
+  <si>
+    <t>EQUILUX II</t>
   </si>
 </sst>
 </file>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,6 +698,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485A821-515B-CC4D-8B89-B515F8C20496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB68835-1C31-6A41-BC9E-53D38655B5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Yield</t>
   </si>
@@ -141,6 +141,36 @@
   </si>
   <si>
     <t>EQUILUX II</t>
+  </si>
+  <si>
+    <t>dimanche, juin 04, 2023</t>
+  </si>
+  <si>
+    <t>YEKU II</t>
+  </si>
+  <si>
+    <t>dimanche, juin 11, 2023</t>
+  </si>
+  <si>
+    <t>dimanche, juin 18, 2023</t>
+  </si>
+  <si>
+    <t>CHERRY TREE</t>
+  </si>
+  <si>
+    <t>dimanche, août 13, 2023</t>
+  </si>
+  <si>
+    <t>GERARD PIQUETTE</t>
+  </si>
+  <si>
+    <t>dimanche, novembre 19, 2023</t>
+  </si>
+  <si>
+    <t>dimanche, décembre 10, 2023</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER MASALE</t>
   </si>
 </sst>
 </file>
@@ -495,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,6 +750,72 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>307</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/code/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB68835-1C31-6A41-BC9E-53D38655B5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57914874-2887-B449-9C70-E9E1B99E0698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Yield</t>
   </si>
@@ -116,12 +116,6 @@
     <t>samedi, novembre 19, 2022</t>
   </si>
   <si>
-    <t>lundi, novembre 21, 2021</t>
-  </si>
-  <si>
-    <t>lundi, décembre 12, 2021</t>
-  </si>
-  <si>
     <t>mardi, décembre 27, 2022</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>dimanche, mars 26, 2023</t>
   </si>
   <si>
-    <t>Brad Peat</t>
-  </si>
-  <si>
     <t>samedi, avril 01, 2023</t>
   </si>
   <si>
@@ -171,6 +162,45 @@
   </si>
   <si>
     <t>CHRISTOPHER MASALE</t>
+  </si>
+  <si>
+    <t>dimanche, janvier 21, 2024</t>
+  </si>
+  <si>
+    <t>vendredi, mai 10, 2024</t>
+  </si>
+  <si>
+    <t>WILLY NELSON SAUVIN</t>
+  </si>
+  <si>
+    <t>samedi, mai 11, 2024</t>
+  </si>
+  <si>
+    <t>dimanche, septembre 22, 2024</t>
+  </si>
+  <si>
+    <t>FALL REGISTRATION</t>
+  </si>
+  <si>
+    <t>dimanche, janvier 05, 2025</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>dimanche, novembre 21, 2021</t>
+  </si>
+  <si>
+    <t>dimanche, décembre 12, 2021</t>
+  </si>
+  <si>
+    <t>samedi, février 04, 2023</t>
+  </si>
+  <si>
+    <t>Cider and Hydromel</t>
+  </si>
+  <si>
+    <t>BRAD PEAT</t>
   </si>
 </sst>
 </file>
@@ -206,11 +236,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -375,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +570,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -554,7 +581,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -708,10 +735,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -719,65 +746,65 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1">
+        <v>28</v>
+      </c>
+      <c r="B18">
         <v>307</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -785,34 +812,100 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25">
-        <v>307</v>
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>307</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C26">
+      <c r="C29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>307</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
         <v>10</v>
       </c>
     </row>
